--- a/CarSharingApplication/Documents/Описание таблиц.xlsx
+++ b/CarSharingApplication/Documents/Описание таблиц.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="135">
   <si>
     <t>CertificateSeries</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Описание ДТП</t>
+  </si>
+  <si>
+    <t>Vehicle_Rental_logs</t>
+  </si>
+  <si>
+    <t>ID_Log</t>
   </si>
 </sst>
 </file>
@@ -503,9 +509,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -801,1074 +807,1079 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="27.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="9.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="19" width="9.140625" style="4"/>
-    <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="24" width="9.140625" style="4"/>
-    <col min="25" max="25" width="9.140625" style="3"/>
-    <col min="26" max="29" width="9.140625" style="4"/>
-    <col min="30" max="30" width="9.140625" style="3"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="9.140625" style="2"/>
+    <col min="26" max="29" width="9.140625" style="3"/>
+    <col min="30" max="30" width="9.140625" style="2"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Z1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="S3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="X3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="4" t="s">
+      <c r="S4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" s="4" t="s">
+      <c r="S5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="K21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="P21" s="2" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="P21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="U21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Z21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
     </row>
     <row r="22" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="W22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="6" t="s">
+      <c r="X22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AA22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB22" s="5" t="s">
+      <c r="AB22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="D23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="8" t="s">
+      <c r="I23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="4" t="s">
+      <c r="N23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U23" s="4" t="s">
+      <c r="S23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>49</v>
+      <c r="X23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="D24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="8" t="s">
+      <c r="I24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="4" t="s">
+      <c r="N24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="4" t="s">
+      <c r="S24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="W24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="X24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="8" t="s">
+      <c r="I25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U25" s="4" t="s">
+      <c r="N25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V25" s="9" t="s">
+      <c r="V25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="X25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="8"/>
+      <c r="F26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="8" t="s">
+      <c r="I26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U26" s="4" t="s">
+      <c r="N26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="W26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="X26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="F27" s="4" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="8" t="s">
+      <c r="I27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U27" s="4" t="s">
+      <c r="N27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>117</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="W27" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="I28" s="8"/>
-      <c r="K28" s="8" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="K28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28" s="4" t="s">
+      <c r="N28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="W28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="I29" s="8"/>
-      <c r="K29" s="8" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="K29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="I31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="I32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="Z21:AC21"/>
     <mergeCell ref="U21:X21"/>
     <mergeCell ref="P21:S21"/>
     <mergeCell ref="K21:N21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CarSharingApplication/Documents/Описание таблиц.xlsx
+++ b/CarSharingApplication/Documents/Описание таблиц.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
   <si>
     <t>CertificateSeries</t>
   </si>
@@ -429,6 +429,21 @@
   </si>
   <si>
     <t>ID_Log</t>
+  </si>
+  <si>
+    <t>Код записи</t>
+  </si>
+  <si>
+    <t>PK, NOT NULL</t>
+  </si>
+  <si>
+    <t>LogString</t>
+  </si>
+  <si>
+    <t>Запись</t>
+  </si>
+  <si>
+    <t>NARCHAR(MAX)</t>
   </si>
 </sst>
 </file>
@@ -808,7 +823,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1592,6 +1607,15 @@
       <c r="Z23" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="AA23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -1653,6 +1677,18 @@
       </c>
       <c r="X24" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">

--- a/CarSharingApplication/Documents/Описание таблиц.xlsx
+++ b/CarSharingApplication/Documents/Описание таблиц.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Таблицы" sheetId="1" r:id="rId1"/>
+    <sheet name="Представления" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
   <si>
     <t>CertificateSeries</t>
   </si>
@@ -444,6 +445,114 @@
   </si>
   <si>
     <t>NARCHAR(MAX)</t>
+  </si>
+  <si>
+    <t>RentalsINFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Rental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Vehicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_DriverLicence </t>
+  </si>
+  <si>
+    <t>RentalStatus</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Статус аренды</t>
+  </si>
+  <si>
+    <t>Время окончания аренды</t>
+  </si>
+  <si>
+    <t>Общая стоимость аренды</t>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>VehiclesINFO</t>
+  </si>
+  <si>
+    <t>Lng</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>AccessStatus</t>
+  </si>
+  <si>
+    <t>DamageCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PricePerHour </t>
+  </si>
+  <si>
+    <t>Статус доступности транспортного средства</t>
+  </si>
+  <si>
+    <t>Общая цена ущерба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RentStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_User </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserEMail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserSurname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserMiddleName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserBirthDay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previlege </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RentalsCount </t>
+  </si>
+  <si>
+    <t>AccidentsCount</t>
+  </si>
+  <si>
+    <t>UsersINFO</t>
+  </si>
+  <si>
+    <t>Права доступа к базе данных</t>
+  </si>
+  <si>
+    <t>Общее количество аренд</t>
+  </si>
+  <si>
+    <t>Общее количество аварий</t>
+  </si>
+  <si>
+    <t>CHAR(24)</t>
+  </si>
+  <si>
+    <t>DriversLicencesCategoriesINFO</t>
   </si>
 </sst>
 </file>
@@ -474,7 +583,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +602,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -517,11 +644,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -540,6 +704,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -823,7 +1011,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1364,7 @@
         <v>121</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>49</v>
@@ -1214,7 +1402,7 @@
         <v>130</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>49</v>
@@ -1904,19 +2092,598 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="3"/>
+    <col min="2" max="4" width="20.7109375" style="8"/>
+    <col min="5" max="5" width="20.7109375" style="11"/>
+    <col min="6" max="6" width="20.7109375" style="8" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="8"/>
+    <col min="10" max="10" width="20.7109375" style="11"/>
+    <col min="11" max="16384" width="20.7109375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+      <c r="F14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="F16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>